--- a/[Thermal] Set fixed Tj and deduce needed current Example.xlsx
+++ b/[Thermal] Set fixed Tj and deduce needed current Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad/Downloads/RE__Overdrive_current_on_0.2_DMD_EVM_for_RR_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9DF3A4-434C-CF45-BF16-8D917A639AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AEC9E-0DC6-5740-BEC1-EA846DAFEFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{05DAE530-2FEF-494E-B9AB-C4F72DE1AB1E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14500" xr2:uid="{05DAE530-2FEF-494E-B9AB-C4F72DE1AB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>Tc</t>
   </si>
@@ -90,10 +90,31 @@
     <t>Orange is the cell needed to be filled</t>
   </si>
   <si>
-    <t>Example</t>
+    <t>R</t>
   </si>
   <si>
-    <t>KR CSLNM1.23_EN</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Duty</t>
+  </si>
+  <si>
+    <t>Rth_real</t>
+  </si>
+  <si>
+    <t>Step 4.</t>
+  </si>
+  <si>
+    <t>Verification</t>
   </si>
   <si>
     <t>H(Tc) coeff</t>
@@ -141,9 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,13 +319,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$G$3</c:f>
+              <c:f>Sheet1!$D$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
@@ -312,26 +332,29 @@
                 <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$G$4</c:f>
+              <c:f>Sheet1!$D$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>4.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5789999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +608,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$29</c:f>
+              <c:f>Sheet1!$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -664,7 +687,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$C$35</c:f>
+              <c:f>Sheet1!$C$31:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -691,7 +714,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$D$35</c:f>
+              <c:f>Sheet1!$D$31:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2026,14 +2049,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190265</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:colOff>632413</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -2064,13 +2087,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>398922</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>189032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>27861</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>87432</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2396,15 +2419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2150B9AC-413A-544B-9CC2-C7FC80045E7D}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2412,21 +2435,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
       <c r="E3">
         <v>60</v>
       </c>
@@ -2436,25 +2453,29 @@
       <c r="G3">
         <v>100</v>
       </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1.26</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>2.87</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
+        <v>4.6390000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6.5789999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2471,61 +2492,61 @@
       </c>
       <c r="G17">
         <f>D21*D18</f>
-        <v>5.3299999999999997E-3</v>
+        <v>8.1999999999999998E-4</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>1.2999999999999999E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18">
         <f>D21*D19+1</f>
-        <v>0.69250000000000012</v>
+        <v>1.2111499999999999</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>-7.4999999999999997E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19">
         <f>D21*D20-D17</f>
-        <v>-81.8</v>
+        <v>-100.54602</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>-2.5722</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20">
         <f>(-G18+SQRT(G18*G18-4*G17*G19))/(2*G17)</f>
-        <v>74.92038620412859</v>
+        <v>78.811682556230011</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -2540,144 +2561,356 @@
       </c>
       <c r="G21">
         <f>(-G18-SQRT(G18*G18-4*G17*G19))/(2*G17)</f>
-        <v>-204.84533929981342</v>
+        <v>-1555.8238776781811</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f>G20</f>
-        <v>74.92038620412859</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <f>D25+D25*D26/(1-D26)</f>
-        <v>8.1732324096863831</v>
-      </c>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <f>D18*D24*D24+D19*D24+D20</f>
-        <v>3.6779545843588721</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.3629</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
+        <f>G20</f>
+        <v>78.811682556230011</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <f>(D26+D26*D27/(1-D27))/D28</f>
+        <v>10.546310775322281</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.55000000000000004</v>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>D18*D25*D25+D19*D25+D20</f>
+        <v>2.72885791311464</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
-        <v>1.94</v>
+        <v>0.3629</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <f>-G24</f>
-        <v>-8.1732324096863831</v>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <f>0.25*0.55</f>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.3</v>
+      </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <f>(-G26+SQRT(G26*G26-4*G25*G27))/(2*G25)</f>
-        <v>2.7737797604341505</v>
+        <f>-G25</f>
+        <v>-10.546310775322281</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29">
-        <f>(-G26-SQRT(G26*G26-4*G25*G27))/(2*G25)</f>
-        <v>-8.1196050566590063</v>
+        <f>(-G27+SQRT(G27*G27-4*G26*G28))/(2*G26)</f>
+        <v>3.3442017428397359</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2.1</v>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <f>(-G27-SQRT(G27*G27-4*G26*G28))/(2*G26)</f>
+        <v>-8.6900270390645904</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D33" s="1">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D36" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>3.34</v>
+      </c>
+      <c r="D58">
+        <f>0.3629*C58+1.94</f>
+        <v>3.1520859999999997</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F58">
+        <f>C58*D58*E58</f>
+        <v>3.1583901719999994</v>
+      </c>
+      <c r="G58">
+        <f>0.1375*F58</f>
+        <v>0.43427864864999993</v>
+      </c>
+      <c r="H58">
+        <f>F58-G58</f>
+        <v>2.7241115233499995</v>
+      </c>
+      <c r="I58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J58">
+        <v>77.981099999999998</v>
+      </c>
+      <c r="K58">
+        <f>J58+H58*I58</f>
+        <v>89.149957245734996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>3.34</v>
+      </c>
+      <c r="D61">
+        <v>3.4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F61">
+        <f>C61*D61*E61</f>
+        <v>2.839</v>
+      </c>
+      <c r="G61">
+        <f>0.3*0.9*F61</f>
+        <v>0.76653000000000004</v>
+      </c>
+      <c r="H61">
+        <f>F61-G61</f>
+        <v>2.07247</v>
+      </c>
+      <c r="I61">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J61">
+        <v>74.8</v>
+      </c>
+      <c r="K61">
+        <f>J61+H61*I61</f>
+        <v>83.297126999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>3.34</v>
+      </c>
+      <c r="D64">
+        <v>3.4</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F64">
+        <f>C64*D64*E64</f>
+        <v>5.1101999999999999</v>
+      </c>
+      <c r="G64">
+        <f>0.3*0.9*F64</f>
+        <v>1.3797540000000001</v>
+      </c>
+      <c r="H64">
+        <f>F64-G64</f>
+        <v>3.7304459999999997</v>
+      </c>
+      <c r="I64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J64">
+        <v>89.16</v>
+      </c>
+      <c r="K64">
+        <f>J64+H64*I64</f>
+        <v>104.4548286</v>
       </c>
     </row>
   </sheetData>
